--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="5">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="30">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="42">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
         <v>18</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="44">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="51">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="55">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
         <v>24</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="6">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9473684210526315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5263157894736842</v>
+        <v>1.578947368421053</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C24" t="n">
         <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>0.53125</v>
+        <v>1.15625</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="30">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
         <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="33">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
         <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
         <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="42">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>18</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>24</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C47" t="n">
         <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0625</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2352941176470588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
         <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
         <v>27</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="57">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>24</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="12">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>1.578947368421053</v>
+        <v>1.473684210526316</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>1.15625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="41">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>1.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
         <v>27</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="57">

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
         <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="13">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="15">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>1.473684210526316</v>
+        <v>1.315789473684211</v>
       </c>
     </row>
     <row r="24">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="30">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
         <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="33">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="54">

--- a/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/011124_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="13">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="15">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="19">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>1.315789473684211</v>
+        <v>1.421052631578947</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C24" t="n">
         <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.15625</v>
       </c>
     </row>
     <row r="25">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>24</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
         <v>27</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="57">
